--- a/Data/Oct 17 fish surveys.xlsx
+++ b/Data/Oct 17 fish surveys.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zoeloffler/Dropbox/PhD Year 1/PhD/Experiments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jc346867\Documents\GitHub\Hoeyetal2021_Survival\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F35AF4-3562-0E4C-B300-CFDF7813C9AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="460" windowWidth="27760" windowHeight="16380" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
@@ -19,31 +18,23 @@
     <sheet name="Zoe" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
     <sheet name="Mez" sheetId="2" r:id="rId6"/>
+    <sheet name="BenthicFish" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId7"/>
-    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="3" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="100">
   <si>
     <t>Habitat</t>
   </si>
@@ -320,11 +311,35 @@
   <si>
     <t>flat</t>
   </si>
+  <si>
+    <t>Groups for plotting</t>
+  </si>
+  <si>
+    <t>Include (Y/N)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Pomacentrus spp</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>other Blenniidae</t>
+  </si>
+  <si>
+    <t>other Pomacentridae</t>
+  </si>
+  <si>
+    <t>Plectroglyphidodon lacrymatus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -371,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -394,6 +409,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +428,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Zoe Loffler" refreshedDate="43083.443794328705" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="128" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Zoe Loffler" refreshedDate="43083.443794328705" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="128">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F129" sheet="Mez"/>
   </cacheSource>
@@ -530,7 +546,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Zoe Loffler" refreshedDate="43083.444531597219" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="149" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Zoe Loffler" refreshedDate="43083.444531597219" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="149">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F150" sheet="Zoe"/>
   </cacheSource>
@@ -2847,7 +2863,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3084,7 +3100,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -3642,24 +3658,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B46"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -3667,7 +3683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -3675,7 +3691,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
@@ -3683,7 +3699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -3691,7 +3707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -3699,7 +3715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -3707,7 +3723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -3715,7 +3731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -3723,7 +3739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -3731,7 +3747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -3739,7 +3755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
@@ -3747,7 +3763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
@@ -3755,7 +3771,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
@@ -3763,7 +3779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -3771,7 +3787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>11</v>
       </c>
@@ -3779,7 +3795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -3787,7 +3803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>30</v>
       </c>
@@ -3795,7 +3811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>29</v>
       </c>
@@ -3803,7 +3819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -3811,7 +3827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
@@ -3819,7 +3835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -3827,7 +3843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>17</v>
       </c>
@@ -3835,7 +3851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -3843,7 +3859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>10</v>
       </c>
@@ -3851,7 +3867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>40</v>
       </c>
@@ -3859,7 +3875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>22</v>
       </c>
@@ -3867,7 +3883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -3875,7 +3891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>41</v>
       </c>
@@ -3883,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
@@ -3891,7 +3907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
@@ -3899,7 +3915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
@@ -3907,7 +3923,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>13</v>
       </c>
@@ -3915,7 +3931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
@@ -3923,7 +3939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>18</v>
       </c>
@@ -3931,7 +3947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
@@ -3939,7 +3955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>20</v>
       </c>
@@ -3947,7 +3963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
@@ -3955,7 +3971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -3963,7 +3979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>23</v>
       </c>
@@ -3971,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>17</v>
       </c>
@@ -3979,7 +3995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>10</v>
       </c>
@@ -3987,7 +4003,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>22</v>
       </c>
@@ -3995,7 +4011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>16</v>
       </c>
@@ -4003,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>87</v>
       </c>
@@ -4017,28 +4033,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4670F1-5775-7845-922D-CACA0FF8BF56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF656D4-D38B-7242-8DAD-5392792E002F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>73</v>
       </c>
@@ -4049,7 +4065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4065,7 +4081,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>88</v>
       </c>
@@ -4081,7 +4097,7 @@
         <v>4.29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>62</v>
       </c>
@@ -4089,7 +4105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4097,7 +4113,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>88</v>
       </c>
@@ -4105,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
@@ -4113,7 +4129,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -4121,7 +4137,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1.35</v>
       </c>
@@ -4129,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>46</v>
       </c>
@@ -4137,7 +4153,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -4145,7 +4161,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1.75</v>
       </c>
@@ -4153,7 +4169,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
@@ -4161,7 +4177,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>6.67</v>
       </c>
@@ -4169,7 +4185,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>1.91</v>
       </c>
@@ -4177,7 +4193,7 @@
         <v>59.17</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>72</v>
       </c>
@@ -4185,7 +4201,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>3</v>
       </c>
@@ -4193,7 +4209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>1.53</v>
       </c>
@@ -4201,7 +4217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
@@ -4209,7 +4225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>8</v>
       </c>
@@ -4217,7 +4233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>1.53</v>
       </c>
@@ -4225,7 +4241,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>58</v>
       </c>
@@ -4233,7 +4249,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>65.33</v>
       </c>
@@ -4241,7 +4257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>8.6</v>
       </c>
@@ -4249,7 +4265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>65</v>
       </c>
@@ -4257,17 +4273,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>1.33</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>45</v>
       </c>
@@ -4278,7 +4294,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>76</v>
       </c>
@@ -4289,7 +4305,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>57</v>
       </c>
@@ -4306,19 +4322,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4338,7 +4354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4358,7 +4374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4378,7 +4394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4398,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4418,7 +4434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4438,7 +4454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4458,7 +4474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4478,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4498,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4518,7 +4534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -4538,7 +4554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4558,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4578,7 +4594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -4598,7 +4614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -4618,7 +4634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4638,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -4658,7 +4674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -4678,7 +4694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -4698,7 +4714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -4718,7 +4734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -4738,7 +4754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4758,7 +4774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -4778,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -4798,7 +4814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -4818,7 +4834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -4838,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -4858,7 +4874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4878,7 +4894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -4898,7 +4914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -4918,7 +4934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -4938,7 +4954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4958,7 +4974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -4978,7 +4994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -4998,7 +5014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -5018,7 +5034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -5038,7 +5054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -5058,7 +5074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -5078,7 +5094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -5098,7 +5114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -5118,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -5138,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -5158,7 +5174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -5178,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -5198,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -5218,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -5238,7 +5254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -5258,7 +5274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -5278,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -5298,7 +5314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -5318,7 +5334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -5338,7 +5354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -5358,7 +5374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -5378,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -5398,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -5418,7 +5434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -5438,7 +5454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -5458,7 +5474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -5478,7 +5494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -5498,7 +5514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -5518,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -5538,7 +5554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -5558,7 +5574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -5578,7 +5594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -5598,7 +5614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -5618,7 +5634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -5638,7 +5654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -5658,7 +5674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -5678,7 +5694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -5698,7 +5714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -5718,7 +5734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -5738,7 +5754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -5758,7 +5774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -5778,7 +5794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -5798,7 +5814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -5818,7 +5834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -5838,7 +5854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -5858,7 +5874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -5878,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -5898,7 +5914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -5918,7 +5934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -5938,7 +5954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -5958,7 +5974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -5978,7 +5994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -5998,7 +6014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -6018,7 +6034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -6038,7 +6054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -6058,7 +6074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -6078,7 +6094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -6098,7 +6114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -6118,7 +6134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -6138,7 +6154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -6158,7 +6174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -6178,7 +6194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -6198,7 +6214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -6218,7 +6234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -6238,7 +6254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -6258,7 +6274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -6278,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -6298,7 +6314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -6318,7 +6334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -6338,7 +6354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -6358,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -6378,7 +6394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -6398,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -6418,7 +6434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -6438,7 +6454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -6458,7 +6474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -6478,7 +6494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -6498,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -6518,7 +6534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -6538,7 +6554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -6558,7 +6574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -6578,7 +6594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -6598,7 +6614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -6618,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -6638,7 +6654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -6658,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -6678,7 +6694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -6698,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -6718,7 +6734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -6738,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -6758,7 +6774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -6778,7 +6794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -6798,7 +6814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -6818,7 +6834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -6838,7 +6854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -6858,7 +6874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -6878,7 +6894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -6898,7 +6914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -6918,7 +6934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -6938,7 +6954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -6958,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -6978,7 +6994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -6998,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -7018,7 +7034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -7038,7 +7054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -7058,7 +7074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -7078,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -7098,7 +7114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -7118,7 +7134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -7138,7 +7154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -7158,7 +7174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -7178,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -7198,7 +7214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -7218,7 +7234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -7238,7 +7254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -7258,7 +7274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -7278,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>26</v>
       </c>
@@ -7298,7 +7314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -7324,22 +7340,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B58"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>86</v>
       </c>
@@ -7347,7 +7363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>26</v>
       </c>
@@ -7355,7 +7371,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>73</v>
       </c>
@@ -7363,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>55</v>
       </c>
@@ -7371,7 +7387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -7379,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>60</v>
       </c>
@@ -7387,7 +7403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
@@ -7395,7 +7411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
@@ -7403,7 +7419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -7411,7 +7427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -7419,7 +7435,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -7427,7 +7443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -7435,7 +7451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>71</v>
       </c>
@@ -7443,7 +7459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
@@ -7451,7 +7467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -7459,7 +7475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>49</v>
       </c>
@@ -7467,7 +7483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
@@ -7475,7 +7491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
@@ -7483,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -7491,7 +7507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>74</v>
       </c>
@@ -7499,7 +7515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>51</v>
       </c>
@@ -7507,7 +7523,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>54</v>
       </c>
@@ -7515,7 +7531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
@@ -7523,7 +7539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>69</v>
       </c>
@@ -7531,7 +7547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>62</v>
       </c>
@@ -7539,7 +7555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>56</v>
       </c>
@@ -7547,7 +7563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>46</v>
       </c>
@@ -7555,7 +7571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
@@ -7563,7 +7579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -7571,7 +7587,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>72</v>
       </c>
@@ -7579,7 +7595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>59</v>
       </c>
@@ -7587,7 +7603,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
@@ -7595,7 +7611,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>65</v>
       </c>
@@ -7603,7 +7619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>64</v>
       </c>
@@ -7611,7 +7627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -7619,7 +7635,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>84</v>
       </c>
@@ -7627,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>52</v>
       </c>
@@ -7635,7 +7651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>67</v>
       </c>
@@ -7643,7 +7659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -7651,7 +7667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>82</v>
       </c>
@@ -7659,7 +7675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>75</v>
       </c>
@@ -7667,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
@@ -7675,7 +7691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>81</v>
       </c>
@@ -7683,7 +7699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
@@ -7691,7 +7707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>79</v>
       </c>
@@ -7699,7 +7715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>51</v>
       </c>
@@ -7707,7 +7723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>83</v>
       </c>
@@ -7715,7 +7731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>78</v>
       </c>
@@ -7723,7 +7739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>62</v>
       </c>
@@ -7731,7 +7747,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>56</v>
       </c>
@@ -7739,7 +7755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>47</v>
       </c>
@@ -7747,7 +7763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>58</v>
       </c>
@@ -7755,7 +7771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>80</v>
       </c>
@@ -7763,7 +7779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>65</v>
       </c>
@@ -7771,7 +7787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>64</v>
       </c>
@@ -7779,7 +7795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>87</v>
       </c>
@@ -7793,19 +7809,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7825,7 +7841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -7845,7 +7861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -7865,7 +7881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -7885,7 +7901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -7905,7 +7921,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -7925,7 +7941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -7945,7 +7961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -7965,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -7985,7 +8001,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -8005,7 +8021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -8025,7 +8041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -8045,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -8065,7 +8081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -8085,7 +8101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -8105,7 +8121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -8125,7 +8141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -8145,7 +8161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -8165,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -8185,7 +8201,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -8205,7 +8221,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -8225,7 +8241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -8245,7 +8261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -8265,7 +8281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -8285,7 +8301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -8305,7 +8321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -8325,7 +8341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -8345,7 +8361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -8365,7 +8381,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -8385,7 +8401,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -8405,7 +8421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -8425,7 +8441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -8445,7 +8461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -8465,7 +8481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -8485,7 +8501,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -8505,7 +8521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -8525,7 +8541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -8545,7 +8561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -8565,7 +8581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -8585,7 +8601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -8605,7 +8621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -8625,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -8645,7 +8661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -8665,7 +8681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -8685,7 +8701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -8705,7 +8721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -8725,7 +8741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -8745,7 +8761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -8765,7 +8781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -8785,7 +8801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -8805,7 +8821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -8825,7 +8841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -8845,7 +8861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -8865,7 +8881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -8885,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -8905,7 +8921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -8925,7 +8941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -8945,7 +8961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -8965,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -8985,7 +9001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -9005,7 +9021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -9025,7 +9041,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -9045,7 +9061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -9065,7 +9081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -9085,7 +9101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -9105,7 +9121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -9125,7 +9141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -9145,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -9165,7 +9181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -9185,7 +9201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -9205,7 +9221,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -9225,7 +9241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -9245,7 +9261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -9265,7 +9281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -9285,7 +9301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -9305,7 +9321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -9325,7 +9341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -9345,7 +9361,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -9365,7 +9381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -9385,7 +9401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -9405,7 +9421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -9425,7 +9441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -9445,7 +9461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -9465,7 +9481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -9485,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -9505,7 +9521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -9525,7 +9541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -9545,7 +9561,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -9565,7 +9581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -9585,7 +9601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -9605,7 +9621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -9625,7 +9641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -9645,7 +9661,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -9665,7 +9681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -9685,7 +9701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -9705,7 +9721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -9725,7 +9741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -9745,7 +9761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -9765,7 +9781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -9785,7 +9801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -9805,7 +9821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -9825,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -9845,7 +9861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -9865,7 +9881,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -9885,7 +9901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -9905,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -9925,7 +9941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -9945,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -9965,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -9985,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -10005,7 +10021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -10025,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -10045,7 +10061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -10065,7 +10081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -10085,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -10105,7 +10121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -10125,7 +10141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -10145,7 +10161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -10165,7 +10181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -10185,7 +10201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -10205,7 +10221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -10225,7 +10241,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -10245,7 +10261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -10265,7 +10281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -10285,7 +10301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -10305,7 +10321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -10325,7 +10341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -10345,7 +10361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -10365,7 +10381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -10383,6 +10399,3235 @@
       </c>
       <c r="F129">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H129"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="10">
+        <v>8</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="10">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="10">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="10">
+        <v>73</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10">
+        <v>61</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="10">
+        <v>8</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="10">
+        <v>4</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="10">
+        <v>3</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="10">
+        <v>7</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="10">
+        <v>7</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="10">
+        <v>3</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="10">
+        <v>60</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="10">
+        <v>70</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="10">
+        <v>20</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="10">
+        <v>9</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="10">
+        <v>8</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="10">
+        <v>20</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="10">
+        <v>4</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="10">
+        <v>2</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="10">
+        <v>9</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="10">
+        <v>500</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="10">
+        <v>13</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="10">
+        <v>49</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="10">
+        <v>8</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="10">
+        <v>3</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="10">
+        <v>200</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="10">
+        <v>2</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="10">
+        <v>3</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="10">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="10">
+        <v>5</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="10">
+        <v>2</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="10">
+        <v>7</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="10">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="10">
+        <v>2</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="10">
+        <v>8</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="10">
+        <v>10</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="10">
+        <v>1</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="10">
+        <v>100</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="10">
+        <v>8</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="10">
+        <v>1</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="10">
+        <v>13</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="10">
+        <v>40</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="10">
+        <v>1</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="10">
+        <v>7</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="10">
+        <v>7</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="10">
+        <v>16</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="10">
+        <v>1</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="10">
+        <v>4</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="10">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="10">
+        <v>9</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="10">
+        <v>1</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="10">
+        <v>6</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="10">
+        <v>1</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="10">
+        <v>1</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="10">
+        <v>1</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="10">
+        <v>7</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="10">
+        <v>1</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="10">
+        <v>1</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="10">
+        <v>2</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="10">
+        <v>14</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="10">
+        <v>2</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="10">
+        <v>10</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="10">
+        <v>2</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="10">
+        <v>2</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="10">
+        <v>1</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="10">
+        <v>2</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="10">
+        <v>70</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="10">
+        <v>2</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="10">
+        <v>1</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="10">
+        <v>2</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="10">
+        <v>2</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="10">
+        <v>2</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="10">
+        <v>1</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="10">
+        <v>150</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="10">
+        <v>2</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" s="10">
+        <v>1</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="10">
+        <v>2</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="10">
+        <v>5</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="10">
+        <v>2</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="10">
+        <v>2</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="10">
+        <v>3</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" s="10">
+        <v>1</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="10">
+        <v>3</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="10">
+        <v>1</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="10">
+        <v>3</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="10">
+        <v>7</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="10">
+        <v>3</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="10">
+        <v>55</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="10">
+        <v>3</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="10">
+        <v>40</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="10">
+        <v>3</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="10">
+        <v>12</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="10">
+        <v>3</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="10">
+        <v>1</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="10">
+        <v>3</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="10">
+        <v>2</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="10">
+        <v>3</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="10">
+        <v>3</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="10">
+        <v>3</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="10">
+        <v>2</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="10">
+        <v>3</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="10">
+        <v>1</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="10">
+        <v>3</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="10">
+        <v>4</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="10">
+        <v>3</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="10">
+        <v>1</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="10">
+        <v>1</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="10">
+        <v>80</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="10">
+        <v>1</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="10">
+        <v>2</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="10">
+        <v>1</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="10">
+        <v>2</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="10">
+        <v>1</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="10">
+        <v>1</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="10">
+        <v>1</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="10">
+        <v>2</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="10">
+        <v>2</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="10">
+        <v>45</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="10">
+        <v>2</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="10">
+        <v>12</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="10">
+        <v>2</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="10">
+        <v>1</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="10">
+        <v>2</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="10">
+        <v>30</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="10">
+        <v>2</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="10">
+        <v>1</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="10">
+        <v>2</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="10">
+        <v>2</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="10">
+        <v>2</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="10">
+        <v>6</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="10">
+        <v>2</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="10">
+        <v>2</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="10">
+        <v>2</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="10">
+        <v>2</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="10">
+        <v>2</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="10">
+        <v>1</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="10">
+        <v>2</v>
+      </c>
+      <c r="D102" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="10">
+        <v>2</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="10">
+        <v>3</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="10">
+        <v>57</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="10">
+        <v>3</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E104" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="10">
+        <v>4</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="10">
+        <v>3</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="10">
+        <v>1</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="10">
+        <v>3</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="10">
+        <v>1</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="10">
+        <v>3</v>
+      </c>
+      <c r="D107" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="10">
+        <v>1</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="10">
+        <v>3</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="10">
+        <v>1</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="10">
+        <v>3</v>
+      </c>
+      <c r="D109" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="10">
+        <v>1</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110" s="10">
+        <v>1</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="10">
+        <v>38</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="10">
+        <v>1</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="10">
+        <v>1</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="10">
+        <v>1</v>
+      </c>
+      <c r="D112" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="10">
+        <v>23</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="10">
+        <v>1</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="10">
+        <v>2</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="10">
+        <v>1</v>
+      </c>
+      <c r="D114" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" s="10">
+        <v>1</v>
+      </c>
+      <c r="H114" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" s="10">
+        <v>1</v>
+      </c>
+      <c r="D115" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="10">
+        <v>3</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" s="10">
+        <v>1</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" s="10">
+        <v>1</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="10">
+        <v>1</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" s="10">
+        <v>2</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" s="10">
+        <v>1</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="10">
+        <v>1</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="10">
+        <v>1</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="10">
+        <v>1</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" s="10">
+        <v>1</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="10">
+        <v>2</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="10">
+        <v>2</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="10">
+        <v>90</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="10">
+        <v>2</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="10">
+        <v>17</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C123" s="10">
+        <v>2</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" s="10">
+        <v>2</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="10">
+        <v>2</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" s="10">
+        <v>1</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="10">
+        <v>2</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="10">
+        <v>1</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C126" s="10">
+        <v>2</v>
+      </c>
+      <c r="D126" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="10">
+        <v>1</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C127" s="10">
+        <v>2</v>
+      </c>
+      <c r="D127" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" s="10">
+        <v>1</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C128" s="10">
+        <v>2</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" s="10">
+        <v>1</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C129" s="10">
+        <v>3</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" s="10">
+        <v>15</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
